--- a/data/sgxList.xlsx
+++ b/data/sgxList.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="sgxList" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -178,6 +178,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -617,7 +620,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -660,12 +663,14 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -693,6 +698,7 @@
     <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Comma" xfId="42" builtinId="3"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
@@ -985,18 +991,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD22"/>
+  <dimension ref="A1:AD25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.7265625" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.35">
@@ -3022,6 +3029,9 @@
       <c r="AD22">
         <v>1.08</v>
       </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="E25" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A2:AD22">
